--- a/Experiments/Measurements/Single Banner Vertical/S path/Antenna_2/Transformed_Coordinates.xlsx
+++ b/Experiments/Measurements/Single Banner Vertical/S path/Antenna_2/Transformed_Coordinates.xlsx
@@ -499,7 +499,7 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>147.2950654500508</v>
+        <v>147.295065450051</v>
       </c>
       <c r="H2" t="n">
         <v>132.3258078350915</v>
@@ -529,10 +529,10 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>127.4755715550314</v>
+        <v>127.4755715550315</v>
       </c>
       <c r="H3" t="n">
-        <v>129.6856493057859</v>
+        <v>129.685649305786</v>
       </c>
     </row>
     <row r="4">
@@ -559,10 +559,10 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>107.7255604664005</v>
+        <v>107.7255604664006</v>
       </c>
       <c r="H4" t="n">
-        <v>127.0923460885994</v>
+        <v>127.0923460885996</v>
       </c>
     </row>
     <row r="5">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>87.71596028848654</v>
+        <v>87.71596028848663</v>
       </c>
       <c r="H5" t="n">
         <v>124.6257042836862</v>
@@ -619,10 +619,10 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>49.47687007420559</v>
+        <v>49.47687007420569</v>
       </c>
       <c r="H6" t="n">
-        <v>132.6965064144027</v>
+        <v>132.6965064144026</v>
       </c>
     </row>
     <row r="7">
@@ -649,7 +649,7 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>147.4425633416029</v>
+        <v>147.4425633416032</v>
       </c>
       <c r="H7" t="n">
         <v>119.6565200943104</v>
@@ -679,10 +679,10 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>147.0197605096721</v>
+        <v>147.0197605096723</v>
       </c>
       <c r="H8" t="n">
-        <v>111.4440039857151</v>
+        <v>111.4440039857152</v>
       </c>
     </row>
     <row r="9">
@@ -709,10 +709,10 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>127.7085972558654</v>
+        <v>127.7085972558655</v>
       </c>
       <c r="H9" t="n">
-        <v>108.270568310424</v>
+        <v>108.2705683104241</v>
       </c>
     </row>
     <row r="10">
@@ -739,10 +739,10 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>107.7909717390793</v>
+        <v>107.7909717390795</v>
       </c>
       <c r="H10" t="n">
-        <v>105.231794317319</v>
+        <v>105.2317943173191</v>
       </c>
     </row>
     <row r="11">
@@ -769,10 +769,10 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>88.0674006089439</v>
+        <v>88.06740060894397</v>
       </c>
       <c r="H11" t="n">
-        <v>102.1453796250328</v>
+        <v>102.1453796250327</v>
       </c>
     </row>
     <row r="12">
@@ -799,7 +799,7 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>82.82749774318893</v>
+        <v>82.82749774318901</v>
       </c>
       <c r="H12" t="n">
         <v>103.237973815426</v>
@@ -829,7 +829,7 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>139.1191392989193</v>
+        <v>139.1191392989195</v>
       </c>
       <c r="H13" t="n">
         <v>109.6234471349645</v>
@@ -859,10 +859,10 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>147.2098773173238</v>
+        <v>147.2098773173241</v>
       </c>
       <c r="H14" t="n">
-        <v>111.0503798427352</v>
+        <v>111.0503798427353</v>
       </c>
     </row>
     <row r="15">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>126.7352827308852</v>
+        <v>126.7352827308854</v>
       </c>
       <c r="H15" t="n">
-        <v>108.7635753967611</v>
+        <v>108.7635753967612</v>
       </c>
     </row>
     <row r="16">
@@ -919,10 +919,10 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>106.578301118174</v>
+        <v>106.5783011181742</v>
       </c>
       <c r="H16" t="n">
-        <v>105.1269819131267</v>
+        <v>105.1269819131268</v>
       </c>
     </row>
     <row r="17">
@@ -949,10 +949,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>83.71003108443907</v>
+        <v>83.71003108443915</v>
       </c>
       <c r="H17" t="n">
-        <v>105.2343391432288</v>
+        <v>105.2343391432287</v>
       </c>
     </row>
     <row r="18">
@@ -979,7 +979,7 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>49.47965709474391</v>
+        <v>49.47965709474401</v>
       </c>
       <c r="H18" t="n">
         <v>132.1915262901397</v>
@@ -1009,7 +1009,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>142.0594145538699</v>
+        <v>142.0594145538702</v>
       </c>
       <c r="H19" t="n">
         <v>119.6958636671979</v>
@@ -1039,7 +1039,7 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>147.2634312653313</v>
+        <v>147.2634312653316</v>
       </c>
       <c r="H20" t="n">
         <v>131.3665592602703</v>
@@ -1069,10 +1069,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>127.1384284255448</v>
+        <v>127.138428425545</v>
       </c>
       <c r="H21" t="n">
-        <v>128.8648454278093</v>
+        <v>128.8648454278095</v>
       </c>
     </row>
     <row r="22">
@@ -1099,10 +1099,10 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>106.3010808236079</v>
+        <v>106.301080823608</v>
       </c>
       <c r="H22" t="n">
-        <v>127.3205212519211</v>
+        <v>127.3205212519212</v>
       </c>
     </row>
     <row r="23">
@@ -1129,10 +1129,10 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>88.03956842953491</v>
+        <v>88.039568429535</v>
       </c>
       <c r="H23" t="n">
-        <v>123.560975724867</v>
+        <v>123.5609757248669</v>
       </c>
     </row>
     <row r="24">
@@ -1159,10 +1159,10 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>102.6836096540404</v>
+        <v>102.68360965404</v>
       </c>
       <c r="H24" t="n">
-        <v>110.4791909234918</v>
+        <v>110.4791909234915</v>
       </c>
     </row>
     <row r="25">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>127.2710106670129</v>
+        <v>127.2710106670131</v>
       </c>
       <c r="H25" t="n">
-        <v>119.0885942408484</v>
+        <v>119.0885942408486</v>
       </c>
     </row>
     <row r="26">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>110.4096221041023</v>
+        <v>110.4096221041024</v>
       </c>
       <c r="H26" t="n">
-        <v>121.4233361700989</v>
+        <v>121.423336170099</v>
       </c>
     </row>
     <row r="27">
@@ -1309,10 +1309,10 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>117.3901456020224</v>
+        <v>117.3901456020225</v>
       </c>
       <c r="H29" t="n">
-        <v>104.2480735761526</v>
+        <v>104.2480735761528</v>
       </c>
     </row>
     <row r="30">
@@ -1339,10 +1339,10 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>117.4052261559703</v>
+        <v>117.4052261559705</v>
       </c>
       <c r="H30" t="n">
-        <v>104.6049563092568</v>
+        <v>104.604956309257</v>
       </c>
     </row>
     <row r="31">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>112.6075791271352</v>
+        <v>112.6075791271354</v>
       </c>
       <c r="H31" t="n">
-        <v>129.6991939490996</v>
+        <v>129.6991939490997</v>
       </c>
     </row>
     <row r="32">
@@ -1429,10 +1429,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>102.852378660691</v>
+        <v>102.8523786606907</v>
       </c>
       <c r="H33" t="n">
-        <v>111.0586081108932</v>
+        <v>111.0586081108929</v>
       </c>
     </row>
     <row r="34">
@@ -1459,10 +1459,10 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>102.6929143651518</v>
+        <v>102.6929143651514</v>
       </c>
       <c r="H34" t="n">
-        <v>101.6214788275175</v>
+        <v>101.6214788275172</v>
       </c>
     </row>
     <row r="35">
@@ -1519,10 +1519,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>137.2126694912036</v>
+        <v>137.2126694912038</v>
       </c>
       <c r="H36" t="n">
-        <v>107.736849165769</v>
+        <v>107.7368491657692</v>
       </c>
     </row>
     <row r="37">
@@ -1549,10 +1549,10 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>102.641605962224</v>
+        <v>102.6416059622237</v>
       </c>
       <c r="H37" t="n">
-        <v>101.8542410379951</v>
+        <v>101.8542410379948</v>
       </c>
     </row>
     <row r="38">
@@ -1609,10 +1609,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>117.6198065614351</v>
+        <v>117.6198065614353</v>
       </c>
       <c r="H39" t="n">
-        <v>120.2018853562402</v>
+        <v>120.2018853562404</v>
       </c>
     </row>
     <row r="40">
@@ -1639,10 +1639,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>112.8675248094655</v>
+        <v>112.8675248094654</v>
       </c>
       <c r="H40" t="n">
-        <v>113.9486901218449</v>
+        <v>113.9486901218447</v>
       </c>
     </row>
     <row r="41">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>117.6612997797067</v>
+        <v>117.6612997797068</v>
       </c>
       <c r="H42" t="n">
-        <v>111.3253880818961</v>
+        <v>111.3253880818962</v>
       </c>
     </row>
     <row r="43">
@@ -1759,10 +1759,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>69.14905435402748</v>
+        <v>69.14905435402713</v>
       </c>
       <c r="H44" t="n">
-        <v>128.3152861108557</v>
+        <v>128.3152861108554</v>
       </c>
     </row>
     <row r="45">
@@ -1849,10 +1849,10 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>117.3121910064862</v>
+        <v>117.3121910064863</v>
       </c>
       <c r="H47" t="n">
-        <v>109.602258553623</v>
+        <v>109.6022585536232</v>
       </c>
     </row>
     <row r="48">
@@ -1909,10 +1909,10 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>137.2307083075345</v>
+        <v>137.2307083075347</v>
       </c>
       <c r="H49" t="n">
-        <v>107.9461297602014</v>
+        <v>107.9461297602016</v>
       </c>
     </row>
     <row r="50">
@@ -1939,10 +1939,10 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>95.80852896606953</v>
+        <v>95.80852896606919</v>
       </c>
       <c r="H50" t="n">
-        <v>132.7777646012766</v>
+        <v>132.7777646012763</v>
       </c>
     </row>
     <row r="51">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>77.01691787082738</v>
+        <v>77.01691787082757</v>
       </c>
       <c r="H51" t="n">
-        <v>152.1486690831044</v>
+        <v>152.1486690831045</v>
       </c>
     </row>
   </sheetData>
